--- a/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_EQ.xlsx
+++ b/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_EQ.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -293,9 +293,6 @@
       <t>S增加集群</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bugs</t>
   </si>
   <si>
     <t>BS</t>
@@ -963,6 +960,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -988,12 +991,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,7 +1010,7 @@
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1024,11 +1021,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1375,7 +1370,7 @@
   <dimension ref="A1:X169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1485,7 +1480,7 @@
       <c r="C2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="58" t="s">
@@ -1507,7 +1502,7 @@
         <v>42772</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="79" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1521,7 +1516,7 @@
       <c r="Q2" s="59"/>
       <c r="R2" s="62"/>
       <c r="S2" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T2" s="68"/>
       <c r="U2" s="56"/>
@@ -1539,14 +1534,14 @@
       <c r="C3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="78" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>78</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>79</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>73</v>
@@ -1561,21 +1556,21 @@
         <v>42772</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="88" t="s">
-        <v>80</v>
+      <c r="L3" s="79" t="s">
+        <v>79</v>
       </c>
       <c r="M3" s="58" t="s">
         <v>75</v>
       </c>
       <c r="N3" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O3" s="58"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="59"/>
       <c r="R3" s="62"/>
       <c r="S3" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
@@ -1595,7 +1590,7 @@
       <c r="I4" s="58"/>
       <c r="J4" s="59"/>
       <c r="K4" s="58"/>
-      <c r="L4" s="88"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
       <c r="O4" s="58"/>
@@ -1621,7 +1616,7 @@
       <c r="I5" s="58"/>
       <c r="J5" s="59"/>
       <c r="K5" s="58"/>
-      <c r="L5" s="88"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="58"/>
       <c r="N5" s="58"/>
       <c r="O5" s="58"/>
@@ -1647,7 +1642,7 @@
       <c r="I6" s="58"/>
       <c r="J6" s="59"/>
       <c r="K6" s="58"/>
-      <c r="L6" s="88"/>
+      <c r="L6" s="79"/>
       <c r="M6" s="58"/>
       <c r="N6" s="58"/>
       <c r="O6" s="58"/>
@@ -1673,7 +1668,7 @@
       <c r="I7" s="58"/>
       <c r="J7" s="59"/>
       <c r="K7" s="58"/>
-      <c r="L7" s="88"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
@@ -1699,7 +1694,7 @@
       <c r="I8" s="58"/>
       <c r="J8" s="59"/>
       <c r="K8" s="58"/>
-      <c r="L8" s="88"/>
+      <c r="L8" s="79"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
@@ -1725,7 +1720,7 @@
       <c r="I9" s="58"/>
       <c r="J9" s="59"/>
       <c r="K9" s="58"/>
-      <c r="L9" s="88"/>
+      <c r="L9" s="79"/>
       <c r="M9" s="58"/>
       <c r="N9" s="58"/>
       <c r="O9" s="65"/>
@@ -1751,7 +1746,7 @@
       <c r="I10" s="58"/>
       <c r="J10" s="59"/>
       <c r="K10" s="58"/>
-      <c r="L10" s="88"/>
+      <c r="L10" s="79"/>
       <c r="M10" s="58"/>
       <c r="N10" s="58"/>
       <c r="O10" s="58"/>
@@ -1777,7 +1772,7 @@
       <c r="I11" s="58"/>
       <c r="J11" s="59"/>
       <c r="K11" s="58"/>
-      <c r="L11" s="88"/>
+      <c r="L11" s="79"/>
       <c r="M11" s="58"/>
       <c r="N11" s="58"/>
       <c r="O11" s="58"/>
@@ -1803,7 +1798,7 @@
       <c r="I12" s="58"/>
       <c r="J12" s="59"/>
       <c r="K12" s="58"/>
-      <c r="L12" s="88"/>
+      <c r="L12" s="79"/>
       <c r="M12" s="58"/>
       <c r="N12" s="58"/>
       <c r="O12" s="58"/>
@@ -1829,7 +1824,7 @@
       <c r="I13" s="58"/>
       <c r="J13" s="59"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="88"/>
+      <c r="L13" s="79"/>
       <c r="M13" s="58"/>
       <c r="N13" s="58"/>
       <c r="O13" s="58"/>
@@ -1855,7 +1850,7 @@
       <c r="I14" s="59"/>
       <c r="J14" s="59"/>
       <c r="K14" s="58"/>
-      <c r="L14" s="88"/>
+      <c r="L14" s="79"/>
       <c r="M14" s="58"/>
       <c r="N14" s="58"/>
       <c r="O14" s="58"/>
@@ -1881,7 +1876,7 @@
       <c r="I15" s="59"/>
       <c r="J15" s="59"/>
       <c r="K15" s="58"/>
-      <c r="L15" s="88"/>
+      <c r="L15" s="79"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
@@ -1907,7 +1902,7 @@
       <c r="I16" s="59"/>
       <c r="J16" s="59"/>
       <c r="K16" s="63"/>
-      <c r="L16" s="88"/>
+      <c r="L16" s="79"/>
       <c r="M16" s="58"/>
       <c r="N16" s="58"/>
       <c r="O16" s="58"/>
@@ -1933,7 +1928,7 @@
       <c r="I17" s="59"/>
       <c r="J17" s="59"/>
       <c r="K17" s="64"/>
-      <c r="L17" s="88"/>
+      <c r="L17" s="79"/>
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
       <c r="O17" s="58"/>
@@ -1958,7 +1953,7 @@
       <c r="I18" s="59"/>
       <c r="J18" s="59"/>
       <c r="K18" s="64"/>
-      <c r="L18" s="88"/>
+      <c r="L18" s="79"/>
       <c r="M18" s="58"/>
       <c r="N18" s="58"/>
       <c r="O18" s="58"/>
@@ -1983,7 +1978,7 @@
       <c r="I19" s="59"/>
       <c r="J19" s="59"/>
       <c r="K19" s="64"/>
-      <c r="L19" s="88"/>
+      <c r="L19" s="79"/>
       <c r="M19" s="58"/>
       <c r="N19" s="58"/>
       <c r="O19" s="58"/>
@@ -2008,7 +2003,7 @@
       <c r="I20" s="58"/>
       <c r="J20" s="59"/>
       <c r="K20" s="58"/>
-      <c r="L20" s="88"/>
+      <c r="L20" s="79"/>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="62"/>
@@ -5814,19 +5809,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5864,8 +5859,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5877,8 +5872,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5890,8 +5885,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5903,8 +5898,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5916,8 +5911,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5929,8 +5924,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5942,8 +5937,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5955,8 +5950,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6017,36 +6012,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6312,7 +6307,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6331,36 +6326,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6645,36 +6640,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6961,36 +6956,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_EQ.xlsx
+++ b/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_EQ.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -271,10 +271,6 @@
     <t>是</t>
   </si>
   <si>
-    <t>彭晓春、朱彤</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>EQ组</t>
   </si>
   <si>
@@ -311,6 +307,17 @@
   </si>
   <si>
     <t>EQ-285</t>
+  </si>
+  <si>
+    <t>房源发布时间需求调整</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春、朱彤</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1030,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1370,7 +1377,7 @@
   <dimension ref="A1:X169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1503,20 +1510,20 @@
       </c>
       <c r="K2" s="58"/>
       <c r="L2" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="N2" s="58" t="s">
         <v>75</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>76</v>
       </c>
       <c r="O2" s="58"/>
       <c r="P2" s="62"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="62"/>
       <c r="S2" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T2" s="68"/>
       <c r="U2" s="56"/>
@@ -1535,13 +1542,13 @@
         <v>69</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>73</v>
@@ -1557,20 +1564,20 @@
       </c>
       <c r="K3" s="58"/>
       <c r="L3" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="58" t="s">
         <v>79</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>80</v>
       </c>
       <c r="O3" s="58"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="59"/>
       <c r="R3" s="62"/>
       <c r="S3" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
@@ -1579,25 +1586,53 @@
       <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="59">
+        <v>42772</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="59">
+        <v>42772</v>
+      </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="L4" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>79</v>
+      </c>
       <c r="O4" s="58"/>
       <c r="P4" s="62"/>
       <c r="Q4" s="59"/>
       <c r="R4" s="62"/>
-      <c r="S4" s="56"/>
+      <c r="S4" s="68" t="s">
+        <v>80</v>
+      </c>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="67"/>
@@ -5625,13 +5660,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 V1:V1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 V1:V1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S3" r:id="rId1"/>
     <hyperlink ref="S2" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_EQ.xlsx
+++ b/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_EQ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.2.9 170207\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\VersionRecords\Version 5.2.9 170207\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.9 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="126">
   <si>
     <t>No</t>
   </si>
@@ -319,12 +319,189 @@
   <si>
     <t>彭晓春</t>
   </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>C端可显示房源全量同步至ES的mogoroom表</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomSearchTask</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>RoomSearchTask</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomSearchTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>凌晨4:00执行</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，依赖roomprice和roomscore的结果</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+  </si>
+  <si>
+    <t>只是代码层面修改，配置不需要任何改动</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步单词联想数据至ES的wordHint表</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.KeywordTask</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeywordTask</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"com.mogoroom.tasktracker.task.KeywordTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc
+renter</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>房源列表缓存时间设置为1s</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.ELASTIC_SEARCHROOM_ROOM_TYPE=mogoroom</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎切换新的数据结构</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+  </si>
+  <si>
+    <t>待正常上班后确认线上有哪些应用调用ES，均需要加此配置</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.roomlist_cachetime=5</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -480,6 +657,38 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -732,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,6 +1208,57 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1376,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -5679,7 +5939,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5758,45 +6018,105 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+    <row r="2" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="89"/>
+      <c r="B3" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="97"/>
+      <c r="P3" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="99"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
@@ -6029,7 +6349,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6120,35 +6440,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
+    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="100">
+        <v>1</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="103">
+        <v>2</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="105" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
@@ -6343,7 +6708,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6434,35 +6799,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
+    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="100">
+        <v>1</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="103">
+        <v>2</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="105" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
@@ -6656,8 +7066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6748,35 +7158,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
+    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="100">
+        <v>1</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="103">
+        <v>2</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="105" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>

--- a/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_EQ.xlsx
+++ b/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_EQ.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\VersionRecords\Version 5.2.9 170207\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="13365"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.9 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
   <si>
     <t>No</t>
   </si>
@@ -496,12 +491,32 @@
     <t>sysconfig.roomlist_cachetime=5</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
+  <si>
+    <t>周蓉、刘俊岐、吴永余</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉、刘俊岐</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1182,6 +1197,57 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1208,57 +1274,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1275,7 +1290,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1633,14 +1648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1666,7 +1681,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="33">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1778,10 +1793,18 @@
       <c r="N2" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="62"/>
+      <c r="O2" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="59">
+        <v>42772</v>
+      </c>
+      <c r="R2" s="62" t="s">
+        <v>130</v>
+      </c>
       <c r="S2" s="68" t="s">
         <v>80</v>
       </c>
@@ -1791,7 +1814,7 @@
       <c r="W2" s="72"/>
       <c r="X2" s="73"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1832,10 +1855,18 @@
       <c r="N3" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="62"/>
+      <c r="O3" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>42772</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>130</v>
+      </c>
       <c r="S3" s="68" t="s">
         <v>81</v>
       </c>
@@ -1845,7 +1876,7 @@
       <c r="W3" s="74"/>
       <c r="X3" s="73"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A4" s="51">
         <v>3</v>
       </c>
@@ -1886,10 +1917,18 @@
       <c r="N4" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="62"/>
+      <c r="O4" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>42772</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>130</v>
+      </c>
       <c r="S4" s="68" t="s">
         <v>80</v>
       </c>
@@ -1899,7 +1938,7 @@
       <c r="W4" s="74"/>
       <c r="X4" s="73"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1925,7 +1964,7 @@
       <c r="W5" s="74"/>
       <c r="X5" s="73"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1951,7 +1990,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="73"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1977,7 +2016,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="73"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -2003,7 +2042,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="73"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -2029,7 +2068,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="73"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -2055,7 +2094,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="73"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -2081,7 +2120,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="73"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -2107,7 +2146,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="73"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -2133,7 +2172,7 @@
       <c r="W13" s="74"/>
       <c r="X13" s="73"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -2159,7 +2198,7 @@
       <c r="W14" s="74"/>
       <c r="X14" s="73"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2185,7 +2224,7 @@
       <c r="W15" s="74"/>
       <c r="X15" s="73"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -2211,7 +2250,7 @@
       <c r="W16" s="75"/>
       <c r="X16" s="73"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2236,7 +2275,7 @@
       <c r="V17" s="56"/>
       <c r="W17" s="57"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2261,7 +2300,7 @@
       <c r="V18" s="56"/>
       <c r="W18" s="57"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2286,7 +2325,7 @@
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2311,7 +2350,7 @@
       <c r="V20" s="56"/>
       <c r="W20" s="74"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2336,7 +2375,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="74"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2361,7 +2400,7 @@
       <c r="V22" s="56"/>
       <c r="W22" s="74"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2386,7 +2425,7 @@
       <c r="V23" s="70"/>
       <c r="W23" s="76"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2411,7 +2450,7 @@
       <c r="V24" s="71"/>
       <c r="W24" s="76"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2436,7 +2475,7 @@
       <c r="V25" s="77"/>
       <c r="W25" s="76"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2461,7 +2500,7 @@
       <c r="V26" s="71"/>
       <c r="W26" s="76"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2486,7 +2525,7 @@
       <c r="V27" s="71"/>
       <c r="W27" s="76"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2511,7 +2550,7 @@
       <c r="V28" s="69"/>
       <c r="W28" s="62"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2536,7 +2575,7 @@
       <c r="V29" s="56"/>
       <c r="W29" s="74"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2561,7 +2600,7 @@
       <c r="V30" s="56"/>
       <c r="W30" s="74"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2586,7 +2625,7 @@
       <c r="V31" s="56"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2611,7 +2650,7 @@
       <c r="V32" s="71"/>
       <c r="W32" s="76"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2636,7 +2675,7 @@
       <c r="V33" s="56"/>
       <c r="W33" s="72"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2661,7 +2700,7 @@
       <c r="V34" s="56"/>
       <c r="W34" s="74"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2686,7 +2725,7 @@
       <c r="V35" s="56"/>
       <c r="W35" s="74"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2711,7 +2750,7 @@
       <c r="V36" s="56"/>
       <c r="W36" s="74"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2736,7 +2775,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="74"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2761,7 +2800,7 @@
       <c r="V38" s="56"/>
       <c r="W38" s="74"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2786,7 +2825,7 @@
       <c r="V39" s="56"/>
       <c r="W39" s="74"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2811,7 +2850,7 @@
       <c r="V40" s="56"/>
       <c r="W40" s="74"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2836,7 +2875,7 @@
       <c r="V41" s="56"/>
       <c r="W41" s="74"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2861,7 +2900,7 @@
       <c r="V42" s="56"/>
       <c r="W42" s="74"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2886,7 +2925,7 @@
       <c r="V43" s="56"/>
       <c r="W43" s="74"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2911,7 +2950,7 @@
       <c r="V44" s="69"/>
       <c r="W44" s="74"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2936,7 +2975,7 @@
       <c r="V45" s="69"/>
       <c r="W45" s="74"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2961,7 +3000,7 @@
       <c r="V46" s="56"/>
       <c r="W46" s="57"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2986,7 +3025,7 @@
       <c r="V47" s="56"/>
       <c r="W47" s="57"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -3011,7 +3050,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -3036,7 +3075,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -3061,7 +3100,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -3086,7 +3125,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -3111,7 +3150,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="56"/>
       <c r="B53" s="56"/>
       <c r="C53" s="56"/>
@@ -3136,7 +3175,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
@@ -3161,7 +3200,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -3186,7 +3225,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -3211,7 +3250,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -3236,7 +3275,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -3261,7 +3300,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -3286,7 +3325,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -3311,7 +3350,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -3336,7 +3375,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3361,7 +3400,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3386,7 +3425,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3411,7 +3450,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3436,7 +3475,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -3461,7 +3500,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -3486,7 +3525,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -3511,7 +3550,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3536,7 +3575,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -3561,7 +3600,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -3586,7 +3625,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -3611,7 +3650,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -3636,7 +3675,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -3661,7 +3700,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -3686,7 +3725,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -3711,7 +3750,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -3736,7 +3775,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -3761,7 +3800,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -3786,7 +3825,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -3811,7 +3850,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -3836,7 +3875,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -3861,7 +3900,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -3886,7 +3925,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -3911,7 +3950,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -3936,7 +3975,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -3961,7 +4000,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -3986,7 +4025,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -4011,7 +4050,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -4036,7 +4075,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -4061,7 +4100,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -4086,7 +4125,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -4111,7 +4150,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -4136,7 +4175,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -4161,7 +4200,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -4186,7 +4225,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -4211,7 +4250,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -4236,7 +4275,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -4261,7 +4300,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -4286,7 +4325,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -4311,7 +4350,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -4336,7 +4375,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -4361,7 +4400,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -4386,7 +4425,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -4411,7 +4450,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -4436,7 +4475,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -4461,7 +4500,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -4486,7 +4525,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -4511,7 +4550,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -4536,7 +4575,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -4561,7 +4600,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -4586,7 +4625,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -4611,7 +4650,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -4636,7 +4675,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -4661,7 +4700,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -4686,7 +4725,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -4711,7 +4750,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -4736,7 +4775,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -4761,7 +4800,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -4786,7 +4825,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -4811,7 +4850,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -4836,7 +4875,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -4861,7 +4900,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -4886,7 +4925,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -4911,7 +4950,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -4936,7 +4975,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -4961,7 +5000,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -4986,7 +5025,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -5011,7 +5050,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -5036,7 +5075,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -5061,7 +5100,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -5086,7 +5125,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -5111,7 +5150,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -5136,7 +5175,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -5161,7 +5200,7 @@
       <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -5182,7 +5221,7 @@
       <c r="R135" s="57"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -5203,7 +5242,7 @@
       <c r="R136" s="57"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -5224,7 +5263,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -5245,7 +5284,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -5266,7 +5305,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -5287,7 +5326,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -5308,7 +5347,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -5329,7 +5368,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -5350,7 +5389,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -5371,7 +5410,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -5392,7 +5431,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -5413,7 +5452,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -5434,7 +5473,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -5455,7 +5494,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -5476,7 +5515,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -5497,7 +5536,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -5518,7 +5557,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -5539,7 +5578,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -5560,7 +5599,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -5581,7 +5620,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -5602,7 +5641,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -5623,7 +5662,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -5644,7 +5683,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -5665,7 +5704,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -5686,7 +5725,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -5707,7 +5746,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -5728,7 +5767,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -5749,7 +5788,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -5770,7 +5809,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -5791,7 +5830,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -5812,7 +5851,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -5833,7 +5872,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -5854,7 +5893,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -5875,7 +5914,7 @@
       <c r="R168" s="57"/>
       <c r="W168" s="57"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
@@ -5935,14 +5974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5962,7 +6001,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -6018,22 +6057,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90" t="s">
+    <row r="2" spans="1:18" ht="77.25" customHeight="1">
+      <c r="A2" s="80"/>
+      <c r="B2" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="85" t="s">
         <v>89</v>
       </c>
       <c r="H2" s="37" t="s">
@@ -6042,50 +6081,50 @@
       <c r="I2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="86" t="s">
         <v>92</v>
       </c>
       <c r="K2" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="95" t="s">
+      <c r="M2" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="96" t="s">
+      <c r="N2" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="99" t="s">
+      <c r="Q2" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="99" t="s">
+      <c r="R2" s="90" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90" t="s">
+    <row r="3" spans="1:18" ht="77.25" customHeight="1">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="85" t="s">
         <v>104</v>
       </c>
       <c r="H3" s="37" t="s">
@@ -6094,31 +6133,31 @@
       <c r="I3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="86" t="s">
         <v>106</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="L3" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="95" t="s">
+      <c r="M3" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="96" t="s">
+      <c r="N3" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="99" t="s">
+      <c r="Q3" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="99"/>
-    </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R3" s="90"/>
+    </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6145,14 +6184,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
@@ -6164,22 +6203,22 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -6214,9 +6253,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6227,9 +6266,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6240,9 +6279,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6253,9 +6292,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6266,9 +6305,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6279,9 +6318,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6292,9 +6331,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6305,9 +6344,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="100"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6318,7 +6357,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6345,14 +6384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6367,39 +6406,39 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6440,82 +6479,82 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="100">
+    <row r="4" spans="1:13" ht="33">
+      <c r="A4" s="91">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="L4" s="91" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103">
+    <row r="5" spans="1:13" ht="111.95" customHeight="1">
+      <c r="A5" s="94">
         <v>2</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="101" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="105" t="s">
+      <c r="M5" s="96" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6530,7 +6569,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6545,7 +6584,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6560,7 +6599,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6575,7 +6614,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6590,7 +6629,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6605,7 +6644,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6620,7 +6659,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6635,7 +6674,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6650,7 +6689,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6665,7 +6704,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6704,14 +6743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6726,39 +6765,39 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6799,82 +6838,82 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="100">
+    <row r="4" spans="1:13" ht="33">
+      <c r="A4" s="91">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="L4" s="91" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103">
+    <row r="5" spans="1:13" ht="111.95" customHeight="1">
+      <c r="A5" s="94">
         <v>2</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="101" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="105" t="s">
+      <c r="M5" s="96" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6889,7 +6928,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6904,7 +6943,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6919,7 +6958,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6934,7 +6973,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6949,7 +6988,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6964,7 +7003,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6979,7 +7018,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6994,7 +7033,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7009,7 +7048,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7024,7 +7063,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7063,14 +7102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -7085,39 +7124,39 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7158,82 +7197,82 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="100">
+    <row r="4" spans="1:13" ht="33">
+      <c r="A4" s="91">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="L4" s="91" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103">
+    <row r="5" spans="1:13" ht="111.95" customHeight="1">
+      <c r="A5" s="94">
         <v>2</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="101" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="105" t="s">
+      <c r="M5" s="96" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7248,7 +7287,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7263,7 +7302,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7278,7 +7317,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7293,7 +7332,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7308,7 +7347,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7323,7 +7362,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7338,7 +7377,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7353,7 +7392,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7368,7 +7407,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7383,7 +7422,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7422,14 +7461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7446,39 +7485,39 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7519,7 +7558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7534,7 +7573,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7549,7 +7588,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7564,7 +7603,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7579,7 +7618,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7594,7 +7633,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7609,7 +7648,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7624,7 +7663,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7639,7 +7678,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7654,7 +7693,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7669,7 +7708,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7684,7 +7723,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7699,7 +7738,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7738,14 +7777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7756,7 +7795,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7782,7 +7821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7792,7 +7831,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7802,7 +7841,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7812,7 +7851,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7822,7 +7861,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7832,7 +7871,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7842,7 +7881,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7852,7 +7891,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7862,7 +7901,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7872,7 +7911,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7882,7 +7921,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7892,7 +7931,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7902,7 +7941,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7912,7 +7951,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7922,7 +7961,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7932,7 +7971,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7942,7 +7981,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7952,7 +7991,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
